--- a/Kredex/Käendused.xlsx
+++ b/Kredex/Käendused.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="117">
   <si>
     <t xml:space="preserve">Registrikood</t>
   </si>
@@ -338,6 +338,39 @@
   </si>
   <si>
     <t xml:space="preserve">eterno eesti oü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortaco Estonia OÜ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erakorraline proportsionaalne käendus majutus-, toitlustus- ja turismisektorile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu Meedia OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magusa Maja OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajand OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larii Keskus OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noto OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baltic Hunter OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnetic MRO AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIRKEL&amp;MALL OÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KORE INVEST OÜ</t>
   </si>
 </sst>
 </file>
@@ -353,6 +386,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -374,6 +408,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -418,7 +453,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -429,6 +464,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -448,21 +487,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:G"/>
+      <selection pane="topLeft" activeCell="A141" activeCellId="0" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -3385,6 +3424,305 @@
       </c>
       <c r="G127" s="2" t="n">
         <v>45041</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="n">
+        <v>12214574</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>46201</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>12046361</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>11544163</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>10997477</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>12378658</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>24000</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>21600</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>11944603</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>11059195</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>248000</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>148800</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>11288122</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>-619956</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>10865988</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>1583333.39</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>791666.69</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>10865988</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>9800000</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>44738</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>12489489</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>314000</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>109900</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>11124774</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>270000</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>44798</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>12477397</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>44425</v>
       </c>
     </row>
   </sheetData>
